--- a/mbs-perturbation/bottleneck/svm/smote/bottleneck-svm-poly-results.xlsx
+++ b/mbs-perturbation/bottleneck/svm/smote/bottleneck-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.491725768321513</v>
+        <v>0.6160990712074303</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9674418604651163</v>
+        <v>0.9255813953488372</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6520376175548589</v>
+        <v>0.7397769516728625</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4435694970254191</v>
+        <v>0.7581719848566792</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
+        <v>0.8208333333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9162790697674419</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5322228231476474</v>
+        <v>0.8505354245538128</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5308641975308642</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.8697674418604651</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6935483870967741</v>
+        <v>0.9303482587064676</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6339859383450515</v>
+        <v>0.9981828015143321</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4940334128878281</v>
+        <v>0.9835164835164835</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9627906976744186</v>
+        <v>0.8325581395348837</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6529968454258674</v>
+        <v>0.9017632241813602</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5615575987020011</v>
+        <v>0.9819794483504598</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5047619047619047</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.986046511627907</v>
+        <v>0.9162790697674419</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6677165354330709</v>
+        <v>0.9563106796116505</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3568848025959978</v>
+        <v>0.9938345051379124</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.504277056700422</v>
+        <v>0.8840897776114496</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9832558139534884</v>
+        <v>0.892093023255814</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6665932104354476</v>
+        <v>0.8788266360212814</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5056441319632233</v>
+        <v>0.9165408328826393</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bottleneck/svm/smote/bottleneck-svm-poly-results.xlsx
+++ b/mbs-perturbation/bottleneck/svm/smote/bottleneck-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6160990712074303</v>
+        <v>0.6484641638225256</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9255813953488372</v>
+        <v>0.9693877551020408</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7397769516728625</v>
+        <v>0.7770961145194274</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7581719848566792</v>
+        <v>0.8080324437467294</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8208333333333333</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9162790697674419</v>
+        <v>0.9846938775510204</v>
       </c>
       <c r="D3" t="n">
-        <v>0.865934065934066</v>
+        <v>0.9922879177377892</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8505354245538128</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9748743718592965</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8697674418604651</v>
+        <v>0.9948717948717949</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9303482587064676</v>
+        <v>0.9847715736040609</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9981828015143321</v>
+        <v>0.9773417059131345</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9835164835164835</v>
+        <v>0.9365853658536586</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8325581395348837</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9017632241813602</v>
+        <v>0.9600000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9819794483504598</v>
+        <v>0.9402407116692831</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9948186528497409</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9162790697674419</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9563106796116505</v>
+        <v>0.9896907216494846</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9938345051379124</v>
+        <v>0.9999211045364892</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8840897776114496</v>
+        <v>0.9109485108770443</v>
       </c>
       <c r="C7" t="n">
-        <v>0.892093023255814</v>
+        <v>0.983636839351125</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8788266360212814</v>
+        <v>0.9407692655021525</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9165408328826393</v>
+        <v>0.9451071931731272</v>
       </c>
     </row>
   </sheetData>
